--- a/src/test/resources/Data/Team2_APIDiet_Data.xlsx
+++ b/src/test/resources/Data/Team2_APIDiet_Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashm\git\Team2_APIDietPhase2RestAssured\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7AA5EC-B440-4DD2-80FD-7833576AC176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4E04A3-B51E-42E9-BFA5-29AC143F3147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0EE0210D-AC2B-47FE-B19F-0820C1BCBD9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="PatientPost" sheetId="2" r:id="rId2"/>
-    <sheet name="DieticianPost" sheetId="3" r:id="rId3"/>
+    <sheet name="PatientPutVitals" sheetId="4" r:id="rId3"/>
+    <sheet name="DieticianPost" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
   <si>
     <t>password</t>
   </si>
@@ -155,9 +156,6 @@
     <t>ContentType</t>
   </si>
   <si>
-    <t>application/json</t>
-  </si>
-  <si>
     <t>valid</t>
   </si>
   <si>
@@ -201,6 +199,69 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>InvalidMethod</t>
+  </si>
+  <si>
+    <t>InvalidEndPoint</t>
+  </si>
+  <si>
+    <t>/patie</t>
+  </si>
+  <si>
+    <t>InvalidContent</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Nofile</t>
+  </si>
+  <si>
+    <t>InvalidVitalsNoFile</t>
+  </si>
+  <si>
+    <t>/patient/newReports/{patientId}</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <r>
+      <t>/patient/newReports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/{patientId}</t>
+    </r>
+  </si>
+  <si>
+    <t>tyuii</t>
+  </si>
+  <si>
+    <t>stwr@gmail.com</t>
+  </si>
+  <si>
+    <t>InValidvitals</t>
   </si>
 </sst>
 </file>
@@ -210,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +299,25 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,20 +340,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,10 +724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06C06CA-C03D-413E-98DC-C8196C42467C}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +742,7 @@
     <col min="10" max="10" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -690,14 +773,11 @@
       <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -708,7 +788,7 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>8611111034</v>
+        <v>7728111034</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>33</v>
@@ -720,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2">
-        <v>35114</v>
+        <v>24157</v>
       </c>
       <c r="I2">
         <v>201</v>
@@ -731,11 +811,8 @@
       <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -746,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>2265971034</v>
+        <v>3365071034</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -755,10 +832,10 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2">
-        <v>33278</v>
+        <v>29991</v>
       </c>
       <c r="I3">
         <v>201</v>
@@ -769,28 +846,25 @@
       <c r="K3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>12</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>123</v>
       </c>
       <c r="D4">
         <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
         <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -804,11 +878,8 @@
       <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -839,14 +910,11 @@
       <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -880,11 +948,8 @@
       <c r="K6" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -915,52 +980,114 @@
       <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L11" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>8611111034</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2">
+        <v>35114</v>
+      </c>
+      <c r="I8">
+        <v>405</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>8611111034</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2">
+        <v>35114</v>
+      </c>
+      <c r="I9">
+        <v>404</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>8611111034</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2">
+        <v>35114</v>
+      </c>
+      <c r="I10">
+        <v>415</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -969,17 +1096,455 @@
     <hyperlink ref="E5" r:id="rId3" xr:uid="{7B6B31D1-2E6E-41FD-A7E8-FCDEDDFF9A99}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{BA092AC1-E8F2-426C-83EC-8DEC66EDA397}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{8A23BCBC-0495-4A81-8FC2-5A732ACC7A93}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{F01816FB-A110-4C90-BE2D-2F095D1B4032}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{24C24C99-328E-4462-A919-F40C2C92BCEF}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{57D1E98C-E13F-4C2C-85B1-64D5E16EDF6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF28415-2C1B-4A37-8260-B0A69A942802}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2">
+        <v>8621111934</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
+        <v>31462</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2">
+        <v>78</v>
+      </c>
+      <c r="M2">
+        <v>56</v>
+      </c>
+      <c r="N2">
+        <v>67</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>9745676789</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2">
+        <v>28535</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>-2</v>
+      </c>
+      <c r="P3">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>9745676789</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2">
+        <v>28535</v>
+      </c>
+      <c r="I4">
+        <v>400</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4">
+        <v>78</v>
+      </c>
+      <c r="M4">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>67</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>9745676789</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>28535</v>
+      </c>
+      <c r="I5">
+        <v>400</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>-2</v>
+      </c>
+      <c r="P5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>9745676789</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
+        <v>28535</v>
+      </c>
+      <c r="I6">
+        <v>405</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6">
+        <v>78</v>
+      </c>
+      <c r="M6">
+        <v>56</v>
+      </c>
+      <c r="N6">
+        <v>67</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>9745676789</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2">
+        <v>28535</v>
+      </c>
+      <c r="I7">
+        <v>404</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7">
+        <v>78</v>
+      </c>
+      <c r="M7">
+        <v>56</v>
+      </c>
+      <c r="N7">
+        <v>67</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>9745676789</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2">
+        <v>28535</v>
+      </c>
+      <c r="I8">
+        <v>415</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8">
+        <v>78</v>
+      </c>
+      <c r="M8">
+        <v>56</v>
+      </c>
+      <c r="N8">
+        <v>67</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H11" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{0869F71C-DE0E-4951-A779-B549BA50A914}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{DE22A594-663C-4277-8CAF-89562CA75940}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{B9F01BFE-4FEB-493D-964C-EE8F8DC84A77}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{AFF7BE70-BC60-4DB1-B317-DD54DFB45116}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{D670D0E0-D616-4FDD-AC9F-AC79205C6994}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{1D7A213E-880C-4885-BA4C-CE39FEFF7735}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{83B5752B-8121-4FBF-B0A9-5B0E7EC40010}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E126A6E-40F5-470A-B49B-DBD0E2DB3B56}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -993,56 +1558,56 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1050,33 +1615,33 @@
       <c r="D2">
         <v>4567805678</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>47</v>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="F2" s="2">
         <v>33277</v>
       </c>
       <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>49</v>
       </c>
       <c r="J2">
         <v>485679</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C16" s="6"/>
+      <c r="C16" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/Data/Team2_APIDiet_Data.xlsx
+++ b/src/test/resources/Data/Team2_APIDiet_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashm\git\Team2_APIDietPhase2RestAssured\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4E04A3-B51E-42E9-BFA5-29AC143F3147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D573EBC8-0D06-40A5-A7CF-356F14BAA0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0EE0210D-AC2B-47FE-B19F-0820C1BCBD9F}"/>
   </bookViews>
@@ -724,10 +724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06C06CA-C03D-413E-98DC-C8196C42467C}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,7 +742,7 @@
     <col min="10" max="10" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -773,11 +773,8 @@
       <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -788,7 +785,7 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>7728111034</v>
+        <v>9988391234</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>33</v>
@@ -808,11 +805,8 @@
       <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -823,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>3365071034</v>
+        <v>8685081034</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -843,11 +837,8 @@
       <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -875,11 +866,8 @@
       <c r="I4">
         <v>400</v>
       </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -910,11 +898,8 @@
       <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -945,11 +930,8 @@
       <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -980,11 +962,8 @@
       <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -1015,11 +994,8 @@
       <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1050,11 +1026,8 @@
       <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="K9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -1084,9 +1057,6 @@
       </c>
       <c r="J10" t="s">
         <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1153,7 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>8621111934</v>
+        <v>9988391234</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>69</v>
@@ -1195,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2">
-        <v>31462</v>
+        <v>24157</v>
       </c>
       <c r="I2">
         <v>200</v>
@@ -1233,7 +1203,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>9745676789</v>
+        <v>8685081034</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>33</v>
@@ -1245,7 +1215,7 @@
         <v>51</v>
       </c>
       <c r="H3" s="2">
-        <v>28535</v>
+        <v>24157</v>
       </c>
       <c r="I3">
         <v>200</v>
@@ -1283,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>9745676789</v>
+        <v>8758191034</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>33</v>
@@ -1295,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="2">
-        <v>28535</v>
+        <v>24157</v>
       </c>
       <c r="I4">
         <v>400</v>
@@ -1333,7 +1303,7 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>9745676789</v>
+        <v>8758191034</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
@@ -1345,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="2">
-        <v>28535</v>
+        <v>24157</v>
       </c>
       <c r="I5">
         <v>400</v>
@@ -1383,7 +1353,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>9745676789</v>
+        <v>8758191034</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
@@ -1395,7 +1365,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="2">
-        <v>28535</v>
+        <v>24157</v>
       </c>
       <c r="I6">
         <v>405</v>
@@ -1433,7 +1403,7 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>9745676789</v>
+        <v>8758191034</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -1445,7 +1415,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="2">
-        <v>28535</v>
+        <v>24157</v>
       </c>
       <c r="I7">
         <v>404</v>
@@ -1483,7 +1453,7 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>9745676789</v>
+        <v>8758191034</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
@@ -1495,7 +1465,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="2">
-        <v>28535</v>
+        <v>24157</v>
       </c>
       <c r="I8">
         <v>415</v>
@@ -1541,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E126A6E-40F5-470A-B49B-DBD0E2DB3B56}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1558,7 +1528,7 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1601,8 +1571,11 @@
       <c r="N1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1639,8 +1612,51 @@
       <c r="L2">
         <v>201</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
     </row>
   </sheetData>

--- a/src/test/resources/Data/Team2_APIDiet_Data.xlsx
+++ b/src/test/resources/Data/Team2_APIDiet_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashm\git\Team2_APIDietPhase2RestAssured\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D573EBC8-0D06-40A5-A7CF-356F14BAA0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EB2A63-E58F-4168-BA15-FB667B0D0964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0EE0210D-AC2B-47FE-B19F-0820C1BCBD9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0EE0210D-AC2B-47FE-B19F-0820C1BCBD9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06C06CA-C03D-413E-98DC-C8196C42467C}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -785,7 +785,7 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>9988391234</v>
+        <v>9729301690</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>33</v>
@@ -817,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>8685081034</v>
+        <v>8744101064</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF28415-2C1B-4A37-8260-B0A69A942802}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1089,7 +1089,6 @@
     <col min="4" max="4" width="28.90625" customWidth="1"/>
     <col min="5" max="5" width="23.453125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -1123,9 +1122,6 @@
       <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
       <c r="L1" t="s">
         <v>62</v>
       </c>
@@ -1153,7 +1149,7 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>9988391234</v>
+        <v>9729301690</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>69</v>
@@ -1172,9 +1168,6 @@
       </c>
       <c r="J2" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="L2">
         <v>78</v>
@@ -1203,7 +1196,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>8685081034</v>
+        <v>9729301690</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>33</v>
@@ -1222,9 +1215,6 @@
       </c>
       <c r="J3" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="L3">
         <v>-1</v>
@@ -1253,7 +1243,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>8758191034</v>
+        <v>9729301690</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>33</v>
@@ -1272,9 +1262,6 @@
       </c>
       <c r="J4" t="s">
         <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
       </c>
       <c r="L4">
         <v>78</v>
@@ -1303,7 +1290,7 @@
         <v>34</v>
       </c>
       <c r="D5">
-        <v>8758191034</v>
+        <v>9729301690</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
@@ -1318,13 +1305,10 @@
         <v>24157</v>
       </c>
       <c r="I5">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
       </c>
       <c r="L5">
         <v>-1</v>
@@ -1353,7 +1337,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>8758191034</v>
+        <v>9729301690</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
@@ -1372,9 +1356,6 @@
       </c>
       <c r="J6" t="s">
         <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
       </c>
       <c r="L6">
         <v>78</v>
@@ -1403,7 +1384,7 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>8758191034</v>
+        <v>9729301690</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
@@ -1422,9 +1403,6 @@
       </c>
       <c r="J7" t="s">
         <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
       </c>
       <c r="L7">
         <v>78</v>
@@ -1453,7 +1431,7 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>8758191034</v>
+        <v>9729301690</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
@@ -1472,9 +1450,6 @@
       </c>
       <c r="J8" t="s">
         <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
       </c>
       <c r="L8">
         <v>78</v>
@@ -1511,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E126A6E-40F5-470A-B49B-DBD0E2DB3B56}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1526,9 +1501,10 @@
     <col min="8" max="8" width="30.08984375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="16" max="16" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1574,8 +1550,11 @@
       <c r="O1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1615,48 +1594,69 @@
       <c r="O2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O3" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="O10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C16" s="4"/>
     </row>
   </sheetData>

--- a/src/test/resources/Data/Team2_APIDiet_Data.xlsx
+++ b/src/test/resources/Data/Team2_APIDiet_Data.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashm\git\Team2_APIDietPhase2RestAssured\src\test\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\git\Team2_APIDietPhase2\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EB2A63-E58F-4168-BA15-FB667B0D0964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AD2A81-3269-4CA2-AD6F-59DDE3139EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0EE0210D-AC2B-47FE-B19F-0820C1BCBD9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0EE0210D-AC2B-47FE-B19F-0820C1BCBD9F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="PatientPost" sheetId="2" r:id="rId2"/>
-    <sheet name="PatientPutVitals" sheetId="4" r:id="rId3"/>
-    <sheet name="DieticianPost" sheetId="3" r:id="rId4"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminLogin" sheetId="14" r:id="rId2"/>
+    <sheet name="GetAllMorbidities" sheetId="7" r:id="rId3"/>
+    <sheet name="Logout" sheetId="8" r:id="rId4"/>
+    <sheet name="update_Patient" sheetId="9" r:id="rId5"/>
+    <sheet name="update_WithMandatoryFields" sheetId="10" r:id="rId6"/>
+    <sheet name="emptyMandatoryFields" sheetId="11" r:id="rId7"/>
+    <sheet name="invaliddata" sheetId="12" r:id="rId8"/>
+    <sheet name="MorbidityTestname" sheetId="13" r:id="rId9"/>
+    <sheet name="PatientPost" sheetId="2" r:id="rId10"/>
+    <sheet name="PatientPutVitals" sheetId="4" r:id="rId11"/>
+    <sheet name="PostDietician" sheetId="5" r:id="rId12"/>
+    <sheet name="UpdateDietician" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="234">
   <si>
     <t>password</t>
   </si>
@@ -147,51 +156,12 @@
     <t>testnamertyo</t>
   </si>
   <si>
-    <t>Endpoint</t>
-  </si>
-  <si>
-    <t>/patient</t>
-  </si>
-  <si>
-    <t>ContentType</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HospitalName</t>
-  </si>
-  <si>
     <t>HospitalStreet</t>
   </si>
   <si>
     <t>HospitalCity</t>
   </si>
   <si>
-    <t xml:space="preserve"> HospitalPinCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Education</t>
-  </si>
-  <si>
-    <t>Rashmi</t>
-  </si>
-  <si>
-    <t>testing@gmail.com</t>
-  </si>
-  <si>
-    <t>Emory</t>
-  </si>
-  <si>
-    <t>Norcross</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>Waterstreet nmm</t>
-  </si>
-  <si>
     <t>Jain</t>
   </si>
   <si>
@@ -207,9 +177,6 @@
     <t>InvalidEndPoint</t>
   </si>
   <si>
-    <t>/patie</t>
-  </si>
-  <si>
     <t>InvalidContent</t>
   </si>
   <si>
@@ -222,9 +189,6 @@
     <t>InvalidVitalsNoFile</t>
   </si>
   <si>
-    <t>/patient/newReports/{patientId}</t>
-  </si>
-  <si>
     <t>Height</t>
   </si>
   <si>
@@ -240,21 +204,6 @@
     <t>dp</t>
   </si>
   <si>
-    <r>
-      <t>/patient/newReports</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/{patientId}</t>
-    </r>
-  </si>
-  <si>
     <t>tyuii</t>
   </si>
   <si>
@@ -262,16 +211,556 @@
   </si>
   <si>
     <t>InValidvitals</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>HospitalName</t>
+  </si>
+  <si>
+    <t>HospitalPincode</t>
+  </si>
+  <si>
+    <t>PostDieticianPositive</t>
+  </si>
+  <si>
+    <t>MBBS</t>
+  </si>
+  <si>
+    <t>Resh100@gmail.com</t>
+  </si>
+  <si>
+    <t>Reshma</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>New Life</t>
+  </si>
+  <si>
+    <t>Velachery Main Road</t>
+  </si>
+  <si>
+    <t>Banu</t>
+  </si>
+  <si>
+    <t>Pavi200@gmail.com</t>
+  </si>
+  <si>
+    <t>Pavithra</t>
+  </si>
+  <si>
+    <t>Giri</t>
+  </si>
+  <si>
+    <t>PostDieticianInvalidData</t>
+  </si>
+  <si>
+    <t>9865187922564676000</t>
+  </si>
+  <si>
+    <t>PostDieticianInvalidData1</t>
+  </si>
+  <si>
+    <t>93459873987</t>
+  </si>
+  <si>
+    <t>Resh101@gmail.com</t>
+  </si>
+  <si>
+    <t>BanuOne</t>
+  </si>
+  <si>
+    <t>2572985702750246000</t>
+  </si>
+  <si>
+    <t>58252705972</t>
+  </si>
+  <si>
+    <t>1988-12-11</t>
+  </si>
+  <si>
+    <t>Resh102@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaTwo</t>
+  </si>
+  <si>
+    <t>59749852987593</t>
+  </si>
+  <si>
+    <t>BanuTwo</t>
+  </si>
+  <si>
+    <t>1988-12-10</t>
+  </si>
+  <si>
+    <t>Resh103@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaThree</t>
+  </si>
+  <si>
+    <t>75927598274</t>
+  </si>
+  <si>
+    <t>BanuThree</t>
+  </si>
+  <si>
+    <t>ReshmaFour</t>
+  </si>
+  <si>
+    <t>4523587205</t>
+  </si>
+  <si>
+    <t>BanuFour</t>
+  </si>
+  <si>
+    <t>3459729357</t>
+  </si>
+  <si>
+    <t>98651879hfe</t>
+  </si>
+  <si>
+    <t>1988-10-01</t>
+  </si>
+  <si>
+    <t>MB34577S</t>
+  </si>
+  <si>
+    <t>Resh104@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaFive</t>
+  </si>
+  <si>
+    <t>BanuFive</t>
+  </si>
+  <si>
+    <t>1988-10-02</t>
+  </si>
+  <si>
+    <t>ReshmaF123</t>
+  </si>
+  <si>
+    <t>Resh105@gmail.com</t>
+  </si>
+  <si>
+    <t>Sale344kjaf</t>
+  </si>
+  <si>
+    <t>NewLifeSeven</t>
+  </si>
+  <si>
+    <t>1988-10-03</t>
+  </si>
+  <si>
+    <t>Resh106@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaSix</t>
+  </si>
+  <si>
+    <t>NewLif2387</t>
+  </si>
+  <si>
+    <t>BanuSix</t>
+  </si>
+  <si>
+    <t>1988-12-31</t>
+  </si>
+  <si>
+    <t>61IER9</t>
+  </si>
+  <si>
+    <t>Abrah234684ko</t>
+  </si>
+  <si>
+    <t>*^(%&amp;$</t>
+  </si>
+  <si>
+    <t>*^(%&amp;$*&amp;^&amp;</t>
+  </si>
+  <si>
+    <t>Resh107@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaSeven</t>
+  </si>
+  <si>
+    <t>BanuSeven</t>
+  </si>
+  <si>
+    <t>#%$&amp;$%*</t>
+  </si>
+  <si>
+    <t>1988-11-01</t>
+  </si>
+  <si>
+    <t>Resh108@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaEight</t>
+  </si>
+  <si>
+    <t>%&amp;^$**#&amp;</t>
+  </si>
+  <si>
+    <t>BanuEight</t>
+  </si>
+  <si>
+    <t>1988-09-08</t>
+  </si>
+  <si>
+    <t>Resh109@gmail.com</t>
+  </si>
+  <si>
+    <t>%*$&amp;$#^%#*$</t>
+  </si>
+  <si>
+    <t>&amp;@#$^$&amp;</t>
+  </si>
+  <si>
+    <t>BanuNine</t>
+  </si>
+  <si>
+    <t>1988-08-03</t>
+  </si>
+  <si>
+    <t>ReshmaTen</t>
+  </si>
+  <si>
+    <t>#$@#&amp;$^$&amp;</t>
+  </si>
+  <si>
+    <t>BanuTen</t>
+  </si>
+  <si>
+    <t>&amp;@#^@$*</t>
+  </si>
+  <si>
+    <t>&amp;@^@#^$&amp;</t>
+  </si>
+  <si>
+    <t>Resh110@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaEle</t>
+  </si>
+  <si>
+    <t>BanuEle</t>
+  </si>
+  <si>
+    <t>1988-22-31</t>
+  </si>
+  <si>
+    <t>Diet.NewLife111@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaTwel</t>
+  </si>
+  <si>
+    <t>BanuTwel</t>
+  </si>
+  <si>
+    <t>1988-12-78</t>
+  </si>
+  <si>
+    <t>ReshmaThir</t>
+  </si>
+  <si>
+    <t>BanuThie</t>
+  </si>
+  <si>
+    <t>31-12-1988</t>
+  </si>
+  <si>
+    <t>12-31-1988</t>
+  </si>
+  <si>
+    <t>12-31</t>
+  </si>
+  <si>
+    <t>1988-12</t>
+  </si>
+  <si>
+    <t>12-1988</t>
+  </si>
+  <si>
+    <t>1988-31</t>
+  </si>
+  <si>
+    <t>31-1988</t>
+  </si>
+  <si>
+    <t>1988-12-22</t>
+  </si>
+  <si>
+    <t>fafjhfkhklashfkladshflkhfkhflkahflkashdflkashflkasdhflkjashfkjasdhfkljashfkljadshfklajshflkasdfhasdlkfhasdlkjfhasdlkjfhasklfjhasdfklhasfkljadshfklajshfkladshfklasdjhfkjasdhflkashflksjhflkdasjfhsdlkjfhakjfhsalkjfhaklfhsdaklfjhaslkfjhdaslkfhaslkfhadsklfjhasdklfhasdlkfjhasdlkfhsadklfhasdlkfhsdflkh</t>
+  </si>
+  <si>
+    <t>Diet.NewLife112@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaFourt</t>
+  </si>
+  <si>
+    <t>Banufour</t>
+  </si>
+  <si>
+    <t>1989-12-22</t>
+  </si>
+  <si>
+    <t>Diet.NewLife113@gmail.com</t>
+  </si>
+  <si>
+    <t>akhakfjhsadkfhsdklfhasdlkfhlkfhkljfhklasjdfhkljashfkljsdhfkasjhfkldsjhflkajhflkashflkjashflkdasjhfkljhfklashfklasdhfklasjhfkljdshfkladsjhfkljsdhfkljashfkjdsbdfajfbadjlfblkjadbfjkabfkljsbdflksdhflkhfklhdskfjhkasdjhflksdjahfklsdfhlksdfhlksdjfhalkdsjfhksdjhfklsdjfhkjasdfjksadbfjabdflkbadkjfh</t>
+  </si>
+  <si>
+    <t>SalemThirt</t>
+  </si>
+  <si>
+    <t>Banufift</t>
+  </si>
+  <si>
+    <t>1989-12-23</t>
+  </si>
+  <si>
+    <t>Diet.NewLife114@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaFift</t>
+  </si>
+  <si>
+    <t>kfjhakjfhkhfklsjdbablkbalkfjhlkajsdflkjahdsfkljhaklsdjfbadsbjlabflkbadlksjfhlkafhlkashfkljsahflkjahflkjsahfklajhdflkjahflkjahdslkjfklajsbfkljabfjkbdfkljabflkjahdflkjhalkjfdhaldjkfhlkjadhfkljafkljadbfkljabflkjabsdkljfhklajhdsfkjahdflkjhasklfdjhakldfh</t>
+  </si>
+  <si>
+    <t>BanuSixt</t>
+  </si>
+  <si>
+    <t>Diet.NewLife115@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaSixt</t>
+  </si>
+  <si>
+    <t>adfkjakfhaskfhasdkfjhkladjfhkljahfdklajhfkjahsdfkjhadkjfhalkjdshfkjahsfkjhasdfkjhasdkjfhalkdfjhakdjfhakljfhklajdshfkljahdsfkjahflkjahdsflkjhadksjfhakldsjfhkajdhfkjashdfkjahdsfkjhakldfjhakljfhakjdfhkjasdhfkjahdsfkjahskjdfhajscbjhsabcljbjahslkdjfhilaehfbjblajhdsfjkahdlkfahsldfabjkabdfjhadlfkj</t>
+  </si>
+  <si>
+    <t>BanuSevent</t>
+  </si>
+  <si>
+    <t>6189477866876876876987698768976897698769876978569769876086987698768976897698769876987698769876987698769876987689769876987698768976876</t>
+  </si>
+  <si>
+    <t>1989-12-25</t>
+  </si>
+  <si>
+    <t>Resh117@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaSevent</t>
+  </si>
+  <si>
+    <t>akjshfkhafkhasdkjfh askdjfhlkashfaksjhdflkjashflkjashfkljashflkjashdfkljahskfjhasdlkfjasdkfjhasddklfjaslkfjhadslkfjhakljfhalkjdckljbajdbcjkasdbljabsfjahdcljhasdlkcjhlksdjbflakjdsbflkajhdflkjadshlkjashflkajhflkjackljbsadcljkbasdkljfalkdjfhakjfhkjcdslkjbcsadbflkjhsadfkjhaklfdjhaifuwiuehfajbcljabsdflhaeiruhbjakbsdhaisulfweilbjchbasdlcjsakfhliuasdbcasjhfblajfdbcklajshfilaskjhdcljabcilusadhfiujab</t>
+  </si>
+  <si>
+    <t>Banueightht</t>
+  </si>
+  <si>
+    <t>1989-12-29</t>
+  </si>
+  <si>
+    <t>Resh116@gmail.com</t>
+  </si>
+  <si>
+    <t>ReshmaEighten</t>
+  </si>
+  <si>
+    <t>kjahdfkhafkhsfkljhkhakfhkafhkasdjfhlkasjfhlkasjhflkjahdflkjahdkfjhalkdjfhalkjfhlkajhflkjahsdflkjhalkfjhalkjfdhalkjdshflkajhdsflkjahflkjahdlkjshlkjsadhclkjasdbljbjlasdbflkjhaflkjhasdlkjhklcjhasdkljfhaslkjfhakldjhflkjasdhflkajdhfkljafhlkjadhflkjahflkjsdhflkjsdahflkjahsdlkjhckljhdskljhflkasjhflkajsdhflkjafh</t>
+  </si>
+  <si>
+    <t>adfhaslkjhflkasdhflkadshflkadsjfhlkashdfliuhweilhljasbcjhbasljkdbflkashfiwhrihewljlskjcblkjasbclkjbadsflkjbafdhflhalkjsdbfkasjbflkjasbfjasbdjbaklchlkfhlihewirhjlbaljdblkasjhfdblkajhdiuhaslkfjbadsljcbljasbdclkjabslkjdbalkjdbflkjashflkjashflkasdhfslkaf@gmail.com</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>WithallFields</t>
+  </si>
+  <si>
+    <t>MandatoryFieldsOnly</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Jason1234</t>
+  </si>
+  <si>
+    <t>1000-12-31</t>
+  </si>
+  <si>
+    <t>JasonOneakhakfjhsadkfhsdklfhasdlkfhlkfhkljfhklasjdfhkljashfkljsdhfkasjhfkldsjhflkajhflkashflkjashflkdasjhfkljhfklashfklasdhfklasjhfkljdshfkladsjhfkljsdhfkljashfkjdsbdfajfbadjlfblkjadbfjkabfkljsbdflksdhflkhfklhdskfjhkasdjhflksdjahfklsdfhlksdfhlksdjfhalkdsjfhksdjhfklsdjfhkjasdfjksadbfjabdflkbadkjfh</t>
+  </si>
+  <si>
+    <t>Request Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post </t>
+  </si>
+  <si>
+    <t>rathna@gmail.com</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>Logic77</t>
+  </si>
+  <si>
+    <t>rose55@gmail.com</t>
+  </si>
+  <si>
+    <t>rose@gmail.com</t>
+  </si>
+  <si>
+    <t>bokul@example.com</t>
+  </si>
+  <si>
+    <t>bokul123@example.com</t>
+  </si>
+  <si>
+    <t>token_type</t>
+  </si>
+  <si>
+    <t>Invalid Endpoint</t>
+  </si>
+  <si>
+    <t>getMorbidity</t>
+  </si>
+  <si>
+    <t>no_auth</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>https://dietician-july-api-hackathon-80f2590665cc.herokuapp.com/diet</t>
+  </si>
+  <si>
+    <t>dietician</t>
+  </si>
+  <si>
+    <t>getLogout</t>
+  </si>
+  <si>
+    <t>Statuscode</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>siya</t>
+  </si>
+  <si>
+    <t>khanna</t>
+  </si>
+  <si>
+    <t>Supriya@gmail.com</t>
+  </si>
+  <si>
+    <t>ALMOND</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>updateMandotoryfield</t>
+  </si>
+  <si>
+    <t>sapna</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>Sapna123@gmail.com</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>emptyFields</t>
+  </si>
+  <si>
+    <t>invalid_data</t>
+  </si>
+  <si>
+    <t>ardh24352361253</t>
+  </si>
+  <si>
+    <t>si57547</t>
+  </si>
+  <si>
+    <t>Sya@gmail</t>
+  </si>
+  <si>
+    <t>Vegetariannbmhnbj</t>
+  </si>
+  <si>
+    <t>14-11-1986hgk</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>morbiditytestName</t>
+  </si>
+  <si>
+    <t>Fasting Glucose</t>
+  </si>
+  <si>
+    <t>Average Glucose</t>
+  </si>
+  <si>
+    <t>Plasma Glucose</t>
+  </si>
+  <si>
+    <t>TSH</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T3
+T4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,34 +778,57 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF212121"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -340,23 +852,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -376,9 +906,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -416,7 +946,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -522,7 +1052,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -664,7 +1194,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -672,57 +1202,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154993C8-C3DD-4AC6-8E3E-219C53FE84BC}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="B3" s="7">
+        <v>401</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>404</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>401</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>401</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>401</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
         <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7">
+        <v>401</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7">
+        <v>401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{AE52672D-422E-4316-80DB-282DD58B8204}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{6214A812-923F-49A3-9CCB-A625810ED5F9}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{75A156A7-24F8-4E01-88F3-469F8A22EE5E}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{CEE02EC9-34F6-4FA7-829F-7FF53FE9D2ED}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{A229EE02-B9EA-4ACD-813D-13F01DDD2337}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{DA153AC7-42D9-4B7B-BF80-7F98D19B5D81}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{2441F021-B7AB-4304-A18A-709FBEC8644E}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{68076865-3837-4B5D-9F6D-A799287E1A97}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{3B51942B-234F-4148-B342-CB3C721A4D75}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{BA10AD39-9151-4C3A-822B-F764A35DD1BA}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{D6A6491C-E045-4FF1-8312-9671ABD4CA59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId11"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06C06CA-C03D-413E-98DC-C8196C42467C}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -826,7 +1526,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <v>29991</v>
@@ -852,10 +1552,10 @@
         <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -965,7 +1665,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -997,7 +1697,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -1028,8 +1728,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>57</v>
+      <c r="A10" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1074,11 +1774,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF28415-2C1B-4A37-8260-B0A69A942802}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -1123,27 +1823,27 @@
         <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -1152,7 +1852,7 @@
         <v>9729301690</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1187,7 +1887,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -1205,7 +1905,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2">
         <v>24157</v>
@@ -1234,7 +1934,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -1281,7 +1981,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1328,7 +2028,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -1375,7 +2075,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1422,7 +2122,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -1468,7 +2168,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H11" s="7"/>
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1484,185 +2184,5981 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E126A6E-40F5-470A-B49B-DBD0E2DB3B56}">
-  <dimension ref="A1:P16"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDFE920-2152-42A9-96D4-B1AB6BD8667F}">
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="8" max="8" width="30.08984375" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="16" max="16" width="27" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
       </c>
       <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4567805678</v>
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>7689876571</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2">
-        <v>33277</v>
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2">
-        <v>485679</v>
+        <v>63</v>
+      </c>
+      <c r="I2">
+        <v>600073</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="L2">
         <v>201</v>
       </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>2358725981</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12013</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="O10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C16" s="4"/>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3">
+        <v>600073</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>600073</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>7689876571</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5">
+        <v>600073</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>7689876571</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12212</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6">
+        <v>600073</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>7689876571</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7">
+        <v>600073</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <v>7689876571</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8">
+        <v>600073</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>7689876571</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9">
+        <v>600073</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>7689876571</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10">
+        <v>600073</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>7689876571</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12">
+        <v>7689876571</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12">
+        <v>600073</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>7689876571</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13">
+        <v>600073</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14">
+        <v>600073</v>
+      </c>
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>7689876571</v>
+      </c>
+      <c r="C15" s="2">
+        <v>12212</v>
+      </c>
+      <c r="L15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16">
+        <v>600073</v>
+      </c>
+      <c r="J16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>7689876571</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12212</v>
+      </c>
+      <c r="L17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18">
+        <v>600073</v>
+      </c>
+      <c r="J18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>7689876571</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19">
+        <v>600073</v>
+      </c>
+      <c r="J19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20">
+        <v>7689876571</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12212</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20">
+        <v>600073</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>7689876571</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21">
+        <v>600073</v>
+      </c>
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>7689876571</v>
+      </c>
+      <c r="C22" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22">
+        <v>600073</v>
+      </c>
+      <c r="J22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23">
+        <v>7689876571</v>
+      </c>
+      <c r="C23" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23">
+        <v>600073</v>
+      </c>
+      <c r="J23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>7689876571</v>
+      </c>
+      <c r="C24" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24">
+        <v>600073</v>
+      </c>
+      <c r="J24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>7689876571</v>
+      </c>
+      <c r="C25" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <v>7689876571</v>
+      </c>
+      <c r="C26" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26">
+        <v>600073</v>
+      </c>
+      <c r="K26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>7689876571</v>
+      </c>
+      <c r="C27" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27">
+        <v>600073</v>
+      </c>
+      <c r="J27" t="s">
+        <v>64</v>
+      </c>
+      <c r="L27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28">
+        <v>600073</v>
+      </c>
+      <c r="J28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>7689876572</v>
+      </c>
+      <c r="C29" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29">
+        <v>600073</v>
+      </c>
+      <c r="J29" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <v>7689876572</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30">
+        <v>600073</v>
+      </c>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>7689876572</v>
+      </c>
+      <c r="C31" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31">
+        <v>600073</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>7689876573</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32">
+        <v>600073</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>7689876574</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33">
+        <v>600073</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>7689876575</v>
+      </c>
+      <c r="C34" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34">
+        <v>600073</v>
+      </c>
+      <c r="J34" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34" t="s">
+        <v>89</v>
+      </c>
+      <c r="L34">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>7689876571</v>
+      </c>
+      <c r="C35" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35">
+        <v>600073</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36">
+        <v>600073</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" t="s">
+        <v>65</v>
+      </c>
+      <c r="L36">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>7689876576</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37">
+        <v>600073</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" t="s">
+        <v>96</v>
+      </c>
+      <c r="L37">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38">
+        <v>7689876571</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38">
+        <v>600073</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39">
+        <v>7689876571</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39">
+        <v>600073</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40">
+        <v>7689876577</v>
+      </c>
+      <c r="C40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40">
+        <v>600073</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" t="s">
+        <v>106</v>
+      </c>
+      <c r="L40">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <v>7689876571</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <v>7689876571</v>
+      </c>
+      <c r="C42" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42">
+        <v>600073</v>
+      </c>
+      <c r="J42" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" t="s">
+        <v>109</v>
+      </c>
+      <c r="L42">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43">
+        <v>600073</v>
+      </c>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" t="s">
+        <v>65</v>
+      </c>
+      <c r="L43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>7689876578</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44">
+        <v>600073</v>
+      </c>
+      <c r="J44" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44" t="s">
+        <v>114</v>
+      </c>
+      <c r="L44">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <v>7689876571</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45">
+        <v>600073</v>
+      </c>
+      <c r="J45" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45" t="s">
+        <v>65</v>
+      </c>
+      <c r="L45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46">
+        <v>7689876571</v>
+      </c>
+      <c r="C46" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46">
+        <v>600073</v>
+      </c>
+      <c r="J46" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47">
+        <v>7689876579</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47">
+        <v>600073</v>
+      </c>
+      <c r="J47" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47" t="s">
+        <v>120</v>
+      </c>
+      <c r="L47">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48">
+        <v>7689876580</v>
+      </c>
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48">
+        <v>600073</v>
+      </c>
+      <c r="J48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" t="s">
+        <v>120</v>
+      </c>
+      <c r="L48">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49">
+        <v>7689876571</v>
+      </c>
+      <c r="C49" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" t="s">
+        <v>125</v>
+      </c>
+      <c r="L49">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50">
+        <v>7689876581</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50">
+        <v>600073</v>
+      </c>
+      <c r="J50" t="s">
+        <v>128</v>
+      </c>
+      <c r="K50" t="s">
+        <v>129</v>
+      </c>
+      <c r="L50">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51">
+        <v>7689876571</v>
+      </c>
+      <c r="C51" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51">
+        <v>600073</v>
+      </c>
+      <c r="J51" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" t="s">
+        <v>130</v>
+      </c>
+      <c r="L51">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52">
+        <v>7689876571</v>
+      </c>
+      <c r="C52" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52">
+        <v>600073</v>
+      </c>
+      <c r="J52" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" t="s">
+        <v>65</v>
+      </c>
+      <c r="L52">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53">
+        <v>7689876586</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53">
+        <v>600073</v>
+      </c>
+      <c r="J53" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" t="s">
+        <v>134</v>
+      </c>
+      <c r="L53">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>7689876587</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54">
+        <v>600073</v>
+      </c>
+      <c r="J54" t="s">
+        <v>64</v>
+      </c>
+      <c r="K54" t="s">
+        <v>138</v>
+      </c>
+      <c r="L54">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>7689876588</v>
+      </c>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55">
+        <v>600073</v>
+      </c>
+      <c r="J55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" t="s">
+        <v>141</v>
+      </c>
+      <c r="L55">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56">
+        <v>7689876571</v>
+      </c>
+      <c r="C56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56">
+        <v>600073</v>
+      </c>
+      <c r="J56" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57">
+        <v>7689876571</v>
+      </c>
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" t="s">
+        <v>63</v>
+      </c>
+      <c r="I57">
+        <v>600073</v>
+      </c>
+      <c r="J57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>7689876571</v>
+      </c>
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" t="s">
+        <v>63</v>
+      </c>
+      <c r="I58">
+        <v>600073</v>
+      </c>
+      <c r="J58" t="s">
+        <v>64</v>
+      </c>
+      <c r="K58" t="s">
+        <v>65</v>
+      </c>
+      <c r="L58">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <v>7689876571</v>
+      </c>
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" t="s">
+        <v>63</v>
+      </c>
+      <c r="I59">
+        <v>600073</v>
+      </c>
+      <c r="J59" t="s">
+        <v>64</v>
+      </c>
+      <c r="K59" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>7689876571</v>
+      </c>
+      <c r="C60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" t="s">
+        <v>63</v>
+      </c>
+      <c r="I60">
+        <v>600073</v>
+      </c>
+      <c r="J60" t="s">
+        <v>64</v>
+      </c>
+      <c r="K60" t="s">
+        <v>65</v>
+      </c>
+      <c r="L60">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61">
+        <v>7689876571</v>
+      </c>
+      <c r="C61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I61">
+        <v>600073</v>
+      </c>
+      <c r="J61" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" t="s">
+        <v>65</v>
+      </c>
+      <c r="L61">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62">
+        <v>7689876571</v>
+      </c>
+      <c r="C62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" t="s">
+        <v>63</v>
+      </c>
+      <c r="I62">
+        <v>600073</v>
+      </c>
+      <c r="J62" t="s">
+        <v>64</v>
+      </c>
+      <c r="K62" t="s">
+        <v>65</v>
+      </c>
+      <c r="L62">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <v>7689876582</v>
+      </c>
+      <c r="C63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63">
+        <v>600073</v>
+      </c>
+      <c r="J63" t="s">
+        <v>64</v>
+      </c>
+      <c r="K63" t="s">
+        <v>153</v>
+      </c>
+      <c r="L63">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>7689876584</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F64" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64">
+        <v>600073</v>
+      </c>
+      <c r="J64" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" t="s">
+        <v>158</v>
+      </c>
+      <c r="L64">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>7689876583</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" t="s">
+        <v>162</v>
+      </c>
+      <c r="H65" t="s">
+        <v>63</v>
+      </c>
+      <c r="I65">
+        <v>600073</v>
+      </c>
+      <c r="J65" t="s">
+        <v>64</v>
+      </c>
+      <c r="K65" t="s">
+        <v>163</v>
+      </c>
+      <c r="L65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>7689876584</v>
+      </c>
+      <c r="C66" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G66" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" t="s">
+        <v>166</v>
+      </c>
+      <c r="I66">
+        <v>600073</v>
+      </c>
+      <c r="J66" t="s">
+        <v>64</v>
+      </c>
+      <c r="K66" t="s">
+        <v>167</v>
+      </c>
+      <c r="L66">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
+        <v>7689876571</v>
+      </c>
+      <c r="C67" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" t="s">
+        <v>63</v>
+      </c>
+      <c r="I67" t="s">
+        <v>168</v>
+      </c>
+      <c r="J67" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" t="s">
+        <v>65</v>
+      </c>
+      <c r="L67">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>7689876585</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F68" t="s">
+        <v>171</v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H68" t="s">
+        <v>63</v>
+      </c>
+      <c r="I68">
+        <v>600073</v>
+      </c>
+      <c r="J68" t="s">
+        <v>172</v>
+      </c>
+      <c r="K68" t="s">
+        <v>173</v>
+      </c>
+      <c r="L68">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>7689876585</v>
+      </c>
+      <c r="C69" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" t="s">
+        <v>176</v>
+      </c>
+      <c r="G69" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" t="s">
+        <v>63</v>
+      </c>
+      <c r="I69">
+        <v>600073</v>
+      </c>
+      <c r="J69" t="s">
+        <v>64</v>
+      </c>
+      <c r="K69" t="s">
+        <v>177</v>
+      </c>
+      <c r="L69">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7689876584</v>
+      </c>
+      <c r="C70" s="2">
+        <v>12241</v>
+      </c>
+      <c r="D70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70">
+        <v>600073</v>
+      </c>
+      <c r="J70" t="s">
+        <v>64</v>
+      </c>
+      <c r="K70" t="s">
+        <v>65</v>
+      </c>
+      <c r="L70">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>7689876585</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" t="s">
+        <v>62</v>
+      </c>
+      <c r="H71" t="s">
+        <v>63</v>
+      </c>
+      <c r="I71">
+        <v>600073</v>
+      </c>
+      <c r="J71" t="s">
+        <v>64</v>
+      </c>
+      <c r="K71" t="s">
+        <v>65</v>
+      </c>
+      <c r="L71">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L72">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{25B7B4D6-D270-467B-A111-F7245DEED6D0}"/>
+    <hyperlink ref="E38" r:id="rId1" xr:uid="{A5DD7877-9803-468B-886B-CE933499BFC9}"/>
+    <hyperlink ref="E37" r:id="rId2" xr:uid="{2236009B-DF07-42E9-95F8-76F7C4EE5D5C}"/>
+    <hyperlink ref="E41:E43" r:id="rId3" display="Resh100@gmail.com" xr:uid="{755E1E33-AECF-4754-83AD-9D890A0A54CC}"/>
+    <hyperlink ref="E39" r:id="rId4" xr:uid="{951A02D1-02F8-4233-9FA3-88911AD5889B}"/>
+    <hyperlink ref="E40" r:id="rId5" xr:uid="{09DF9C76-C4FC-4DAC-A4EA-5EDB4B6551B2}"/>
+    <hyperlink ref="E45:E46" r:id="rId6" display="Resh100@gmail.com" xr:uid="{51DA39C0-C716-46A8-8425-4F7E002E34C0}"/>
+    <hyperlink ref="E44" r:id="rId7" xr:uid="{A5E9CA00-1622-4C59-8DC7-B173E3F7C795}"/>
+    <hyperlink ref="E49:E51" r:id="rId8" display="Resh100@gmail.com" xr:uid="{B1605E00-A60D-453E-BA4A-2441AF71AE77}"/>
+    <hyperlink ref="E47" r:id="rId9" xr:uid="{402A0BE8-8847-48A8-B59C-DAE92C60AB48}"/>
+    <hyperlink ref="E48" r:id="rId10" xr:uid="{D3909657-41F1-46A5-A0A3-AFEBA57D7CD7}"/>
+    <hyperlink ref="E53" r:id="rId11" xr:uid="{02F6B07C-9669-48A1-9344-B1621854F9D0}"/>
+    <hyperlink ref="E54" r:id="rId12" xr:uid="{5A65556A-34E6-4A1E-BCE5-C008F7A700D9}"/>
+    <hyperlink ref="E55:E62" r:id="rId13" display="Resh100@gmail.com" xr:uid="{27CF924A-E0E1-4F0D-9BCB-63BC902A2901}"/>
+    <hyperlink ref="E63" r:id="rId14" xr:uid="{8E0A8FA1-9549-47EA-B831-470E84F19C3D}"/>
+    <hyperlink ref="E64" r:id="rId15" xr:uid="{B5108950-68E9-40CF-B4C8-C0EDF0BE6365}"/>
+    <hyperlink ref="E65" r:id="rId16" xr:uid="{65401E7B-D162-4ADF-8CC8-C6B65851A9ED}"/>
+    <hyperlink ref="E66" r:id="rId17" xr:uid="{AA42D28E-DBBA-4633-A9C2-4506E1BA59C7}"/>
+    <hyperlink ref="E67" r:id="rId18" xr:uid="{89D5BD7F-EFE2-4B99-AC48-EC9E264139D4}"/>
+    <hyperlink ref="E71" r:id="rId19" xr:uid="{B2BEC9A1-7DB1-4AA6-9EFA-E1E5E0234EB6}"/>
+    <hyperlink ref="E68" r:id="rId20" xr:uid="{8673EFCC-3427-4C2C-B605-A25578075E3F}"/>
+    <hyperlink ref="E69" r:id="rId21" xr:uid="{33957ABA-8EDA-428D-8D09-DF3A7B353B7C}"/>
+    <hyperlink ref="E50" r:id="rId22" xr:uid="{8C8C7969-4456-4830-AFDA-83E20CBC2D82}"/>
+    <hyperlink ref="E3" r:id="rId23" xr:uid="{F9383A6E-F20D-4668-BA0A-55D2E8C84FD7}"/>
+    <hyperlink ref="E34:E36" r:id="rId24" display="Resh100@gmail.com" xr:uid="{64B12FA1-8B42-4E5D-BD15-008A29496DE0}"/>
+    <hyperlink ref="E33" r:id="rId25" xr:uid="{9ACEEB82-05F4-4F70-8A21-B5A337D0091A}"/>
+    <hyperlink ref="E32" r:id="rId26" xr:uid="{DF68B7E4-2C60-432A-8CF4-5BD44695E0E9}"/>
+    <hyperlink ref="E31" r:id="rId27" xr:uid="{C5E94FD1-E732-4650-8C47-6B19F156C0F2}"/>
+    <hyperlink ref="E29" r:id="rId28" xr:uid="{FB5C55E2-C653-445C-B178-EA450CD82331}"/>
+    <hyperlink ref="E22:E28" r:id="rId29" display="Resh100@gmail.com" xr:uid="{FFCC4FA5-742B-4AD9-82C3-4F8399E65769}"/>
+    <hyperlink ref="E18:E20" r:id="rId30" display="Resh100@gmail.com" xr:uid="{2E84603F-8400-40E9-A89C-15D136F08EE7}"/>
+    <hyperlink ref="E16" r:id="rId31" xr:uid="{DD4981A9-9D10-4DB1-B63A-B57695CF6382}"/>
+    <hyperlink ref="E8:E14" r:id="rId32" display="Resh100@gmail.com" xr:uid="{389ECCD2-CB33-453D-9DDC-8443A4370A11}"/>
+    <hyperlink ref="E4:E6" r:id="rId33" display="Resh100@gmail.com" xr:uid="{FCDA927A-A08C-4BF8-A9F3-25E3F73C27E0}"/>
+    <hyperlink ref="E2" r:id="rId34" xr:uid="{F4EEB10F-B39D-44F9-9B6B-E41E5C1D1526}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F085303-14AC-4BDE-BB00-928CE2E57169}">
+  <dimension ref="A1:L71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2">
+        <v>7689876571</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2">
+        <v>600073</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3">
+        <v>7689876571</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3">
+        <v>600073</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>7689876571</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>600073</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5">
+        <v>600073</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>7689876571</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6">
+        <v>600073</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>7689876571</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8559</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7">
+        <v>600073</v>
+      </c>
+      <c r="J7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>7689876571</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8">
+        <v>600073</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>7689876571</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9">
+        <v>600073</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>7689876571</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10">
+        <v>600073</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>7689876571</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11">
+        <v>600073</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>7689876571</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>7689876571</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13">
+        <v>600073</v>
+      </c>
+      <c r="K13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>7689876571</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14">
+        <v>600073</v>
+      </c>
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15">
+        <v>600073</v>
+      </c>
+      <c r="J15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>7689876571</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8559</v>
+      </c>
+      <c r="L16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17">
+        <v>600073</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>7689876571</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8559</v>
+      </c>
+      <c r="L18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19">
+        <v>600073</v>
+      </c>
+      <c r="J19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>7689876571</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20">
+        <v>600073</v>
+      </c>
+      <c r="J20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>7689876571</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8559</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21">
+        <v>600073</v>
+      </c>
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>7689876571</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22">
+        <v>600073</v>
+      </c>
+      <c r="J22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>7689876571</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23">
+        <v>600073</v>
+      </c>
+      <c r="J23" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>7689876571</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24">
+        <v>600073</v>
+      </c>
+      <c r="J24" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>7689876571</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25">
+        <v>600073</v>
+      </c>
+      <c r="J25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>7689876571</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7689876571</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8559</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27">
+        <v>600073</v>
+      </c>
+      <c r="K27" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>7689876571</v>
+      </c>
+      <c r="C28" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28">
+        <v>600073</v>
+      </c>
+      <c r="J28" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29">
+        <v>600073</v>
+      </c>
+      <c r="J29" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>7689876571</v>
+      </c>
+      <c r="C30" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>182</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I30">
+        <v>600073</v>
+      </c>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>7689876571</v>
+      </c>
+      <c r="C31" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31">
+        <v>600073</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>7689876571</v>
+      </c>
+      <c r="C32" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32">
+        <v>600073</v>
+      </c>
+      <c r="J32" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>7689876571</v>
+      </c>
+      <c r="C33" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33">
+        <v>600073</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>7689876571</v>
+      </c>
+      <c r="C34" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34">
+        <v>600073</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>7689876571</v>
+      </c>
+      <c r="C35" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" t="s">
+        <v>182</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35">
+        <v>600073</v>
+      </c>
+      <c r="J35" t="s">
+        <v>88</v>
+      </c>
+      <c r="K35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>7689876571</v>
+      </c>
+      <c r="C36" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" t="s">
+        <v>182</v>
+      </c>
+      <c r="H36" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36">
+        <v>600073</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37">
+        <v>600073</v>
+      </c>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>7689876571</v>
+      </c>
+      <c r="C38" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38">
+        <v>600073</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+      <c r="K38" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>7689876571</v>
+      </c>
+      <c r="C39" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39">
+        <v>600073</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>7689876571</v>
+      </c>
+      <c r="C40" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40">
+        <v>600073</v>
+      </c>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>7689876571</v>
+      </c>
+      <c r="C41" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41">
+        <v>600073</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>7689876571</v>
+      </c>
+      <c r="C42" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42">
+        <v>600073</v>
+      </c>
+      <c r="J42" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43">
+        <v>7689876571</v>
+      </c>
+      <c r="C43" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43">
+        <v>600073</v>
+      </c>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" t="s">
+        <v>109</v>
+      </c>
+      <c r="L43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>182</v>
+      </c>
+      <c r="H44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44">
+        <v>600073</v>
+      </c>
+      <c r="J44" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44" t="s">
+        <v>65</v>
+      </c>
+      <c r="L44">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45">
+        <v>7689876571</v>
+      </c>
+      <c r="C45" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I45">
+        <v>600073</v>
+      </c>
+      <c r="J45" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45" t="s">
+        <v>65</v>
+      </c>
+      <c r="L45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46">
+        <v>7689876571</v>
+      </c>
+      <c r="C46" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46">
+        <v>600073</v>
+      </c>
+      <c r="J46" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47">
+        <v>7689876571</v>
+      </c>
+      <c r="C47" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" t="s">
+        <v>182</v>
+      </c>
+      <c r="H47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47">
+        <v>600073</v>
+      </c>
+      <c r="J47" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>7689876571</v>
+      </c>
+      <c r="C48" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48">
+        <v>600073</v>
+      </c>
+      <c r="J48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K48" t="s">
+        <v>65</v>
+      </c>
+      <c r="L48">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <v>7689876571</v>
+      </c>
+      <c r="C49" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" t="s">
+        <v>182</v>
+      </c>
+      <c r="H49" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49">
+        <v>600073</v>
+      </c>
+      <c r="J49" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" t="s">
+        <v>65</v>
+      </c>
+      <c r="L49">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>7689876571</v>
+      </c>
+      <c r="C50" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" t="s">
+        <v>124</v>
+      </c>
+      <c r="J50" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50" t="s">
+        <v>65</v>
+      </c>
+      <c r="L50">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51">
+        <v>7689876571</v>
+      </c>
+      <c r="C51" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" t="s">
+        <v>182</v>
+      </c>
+      <c r="H51" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51">
+        <v>600073</v>
+      </c>
+      <c r="J51" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>7689876571</v>
+      </c>
+      <c r="C52" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s">
+        <v>182</v>
+      </c>
+      <c r="H52" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52">
+        <v>600073</v>
+      </c>
+      <c r="J52" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" t="s">
+        <v>130</v>
+      </c>
+      <c r="L52">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>7689876571</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53">
+        <v>600073</v>
+      </c>
+      <c r="J53" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54">
+        <v>7689876571</v>
+      </c>
+      <c r="C54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" t="s">
+        <v>182</v>
+      </c>
+      <c r="H54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54">
+        <v>600073</v>
+      </c>
+      <c r="J54" t="s">
+        <v>64</v>
+      </c>
+      <c r="K54" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55">
+        <v>7689876571</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" t="s">
+        <v>182</v>
+      </c>
+      <c r="H55" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55">
+        <v>600073</v>
+      </c>
+      <c r="J55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56">
+        <v>7689876571</v>
+      </c>
+      <c r="C56" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56">
+        <v>600073</v>
+      </c>
+      <c r="J56" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>7689876571</v>
+      </c>
+      <c r="C57" s="6">
+        <v>12241</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s">
+        <v>182</v>
+      </c>
+      <c r="H57" t="s">
+        <v>63</v>
+      </c>
+      <c r="I57">
+        <v>600073</v>
+      </c>
+      <c r="J57" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57" t="s">
+        <v>65</v>
+      </c>
+      <c r="L57">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58">
+        <v>7689876571</v>
+      </c>
+      <c r="C58" s="6">
+        <v>12241</v>
+      </c>
+      <c r="D58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" t="s">
+        <v>182</v>
+      </c>
+      <c r="H58" t="s">
+        <v>63</v>
+      </c>
+      <c r="I58">
+        <v>600073</v>
+      </c>
+      <c r="J58" t="s">
+        <v>64</v>
+      </c>
+      <c r="K58" t="s">
+        <v>65</v>
+      </c>
+      <c r="L58">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59">
+        <v>7689876571</v>
+      </c>
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" t="s">
+        <v>61</v>
+      </c>
+      <c r="G59" t="s">
+        <v>182</v>
+      </c>
+      <c r="H59" t="s">
+        <v>63</v>
+      </c>
+      <c r="I59">
+        <v>600073</v>
+      </c>
+      <c r="J59" t="s">
+        <v>64</v>
+      </c>
+      <c r="K59" t="s">
+        <v>65</v>
+      </c>
+      <c r="L59">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60">
+        <v>7689876571</v>
+      </c>
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" t="s">
+        <v>182</v>
+      </c>
+      <c r="H60" t="s">
+        <v>63</v>
+      </c>
+      <c r="I60">
+        <v>600073</v>
+      </c>
+      <c r="J60" t="s">
+        <v>64</v>
+      </c>
+      <c r="K60" t="s">
+        <v>65</v>
+      </c>
+      <c r="L60">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61">
+        <v>7689876571</v>
+      </c>
+      <c r="C61" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" t="s">
+        <v>182</v>
+      </c>
+      <c r="H61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I61">
+        <v>600073</v>
+      </c>
+      <c r="J61" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" t="s">
+        <v>65</v>
+      </c>
+      <c r="L61">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62">
+        <v>7689876571</v>
+      </c>
+      <c r="C62" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>182</v>
+      </c>
+      <c r="H62" t="s">
+        <v>63</v>
+      </c>
+      <c r="I62">
+        <v>600073</v>
+      </c>
+      <c r="J62" t="s">
+        <v>64</v>
+      </c>
+      <c r="K62" t="s">
+        <v>65</v>
+      </c>
+      <c r="L62">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63">
+        <v>7689876571</v>
+      </c>
+      <c r="C63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>182</v>
+      </c>
+      <c r="H63" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63">
+        <v>600073</v>
+      </c>
+      <c r="J63" t="s">
+        <v>64</v>
+      </c>
+      <c r="K63" t="s">
+        <v>65</v>
+      </c>
+      <c r="L63">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>7689876571</v>
+      </c>
+      <c r="C64" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G64" t="s">
+        <v>182</v>
+      </c>
+      <c r="H64" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64">
+        <v>600073</v>
+      </c>
+      <c r="J64" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" t="s">
+        <v>65</v>
+      </c>
+      <c r="L64">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65">
+        <v>7689876571</v>
+      </c>
+      <c r="C65" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" t="s">
+        <v>185</v>
+      </c>
+      <c r="G65" t="s">
+        <v>182</v>
+      </c>
+      <c r="H65" t="s">
+        <v>63</v>
+      </c>
+      <c r="I65">
+        <v>600073</v>
+      </c>
+      <c r="J65" t="s">
+        <v>64</v>
+      </c>
+      <c r="K65" t="s">
+        <v>65</v>
+      </c>
+      <c r="L65">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66">
+        <v>7689876571</v>
+      </c>
+      <c r="C66" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" t="s">
+        <v>63</v>
+      </c>
+      <c r="I66">
+        <v>600073</v>
+      </c>
+      <c r="J66" t="s">
+        <v>64</v>
+      </c>
+      <c r="K66" t="s">
+        <v>65</v>
+      </c>
+      <c r="L66">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67">
+        <v>7689876571</v>
+      </c>
+      <c r="C67" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" t="s">
+        <v>182</v>
+      </c>
+      <c r="H67" t="s">
+        <v>166</v>
+      </c>
+      <c r="I67">
+        <v>600073</v>
+      </c>
+      <c r="J67" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" t="s">
+        <v>65</v>
+      </c>
+      <c r="L67">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68">
+        <v>7689876571</v>
+      </c>
+      <c r="C68" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D68" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" t="s">
+        <v>182</v>
+      </c>
+      <c r="H68" t="s">
+        <v>63</v>
+      </c>
+      <c r="I68" t="s">
+        <v>168</v>
+      </c>
+      <c r="J68" t="s">
+        <v>64</v>
+      </c>
+      <c r="K68" t="s">
+        <v>65</v>
+      </c>
+      <c r="L68">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69">
+        <v>7689876571</v>
+      </c>
+      <c r="C69" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G69" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" t="s">
+        <v>63</v>
+      </c>
+      <c r="I69">
+        <v>600073</v>
+      </c>
+      <c r="J69" t="s">
+        <v>172</v>
+      </c>
+      <c r="K69" t="s">
+        <v>65</v>
+      </c>
+      <c r="L69">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70">
+        <v>7689876571</v>
+      </c>
+      <c r="C70" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D70" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" t="s">
+        <v>61</v>
+      </c>
+      <c r="G70" t="s">
+        <v>182</v>
+      </c>
+      <c r="H70" t="s">
+        <v>63</v>
+      </c>
+      <c r="I70">
+        <v>600073</v>
+      </c>
+      <c r="J70" t="s">
+        <v>64</v>
+      </c>
+      <c r="K70" t="s">
+        <v>177</v>
+      </c>
+      <c r="L70">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71">
+        <v>7689876571</v>
+      </c>
+      <c r="C71" s="2">
+        <v>12212</v>
+      </c>
+      <c r="D71" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" t="s">
+        <v>182</v>
+      </c>
+      <c r="H71" t="s">
+        <v>63</v>
+      </c>
+      <c r="I71">
+        <v>600073</v>
+      </c>
+      <c r="J71" t="s">
+        <v>64</v>
+      </c>
+      <c r="K71" t="s">
+        <v>65</v>
+      </c>
+      <c r="L71">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{C8C1A857-C80B-466D-BABC-C2528905C592}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{E6943C8E-B082-400C-BED4-A123B821F345}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D189532-C24F-4BED-A7F3-B523823277E0}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3B514B86-9A24-4AF4-8025-5350A6D92464}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD5374C-201D-4385-9D70-B2DC068D422B}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2">
+        <v>401</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3">
+        <v>403</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5">
+        <v>405</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6">
+        <v>404</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8">
+        <v>405</v>
+      </c>
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9">
+        <v>404</v>
+      </c>
+      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{511C60EE-F019-4061-9A56-40A229B6FE09}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{70579E18-0A5E-45E4-A3FA-6A26578DB14B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD549E42-150E-4755-9465-ECE29A730553}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2">
+        <v>401</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4">
+        <v>405</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6">
+        <v>405</v>
+      </c>
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8">
+        <v>405</v>
+      </c>
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DC279F-1580-4FC7-B71F-B7B6ACF9C90A}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1234567890</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="14">
+        <v>31730</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" tooltip="mailto:Supriya@gmail.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE54CE7-EF3E-4AAF-9BEE-A67F0248D566}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="7" max="8" width="39.6328125" customWidth="1"/>
+    <col min="9" max="9" width="37.81640625" customWidth="1"/>
+    <col min="10" max="10" width="43.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1234567891</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="14">
+        <v>32824</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="11">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{D3B5F482-5934-47A8-A107-654F74787A6A}"/>
+    <hyperlink ref="E2" r:id="rId2" tooltip="mailto:Sapna123@gmail.com" xr:uid="{F05F7F3A-79B2-4A97-A47B-0A9E834D6146}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60F28FA-F7C3-4BE3-AE16-290476FBFFE2}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="11">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088A1864-78B7-40C3-BB44-3F2C1CC8BCBB}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" customWidth="1"/>
+    <col min="3" max="3" width="53.6328125" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.90625" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="8" max="8" width="22.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="11">
+        <v>12345678900</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="11">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E4836951-ED31-4F3F-8E4B-518B8918EB2B}"/>
+    <hyperlink ref="E2" r:id="rId2" tooltip="mailto:Sya@gmail" xr:uid="{365675BF-D322-44B5-A5DA-3B46262B9C8E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECB24F3-5160-43F6-83A1-3A2F6B000CBF}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>